--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2025.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2025.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.151029225057932</v>
+        <v>1.165075540542603</v>
       </c>
       <c r="B1">
-        <v>2.325959236695947</v>
+        <v>2.510160684585571</v>
       </c>
       <c r="C1">
-        <v>7.103211257423449</v>
+        <v>6.726939678192139</v>
       </c>
       <c r="D1">
-        <v>2.402736285382787</v>
+        <v>2.052569389343262</v>
       </c>
       <c r="E1">
-        <v>1.228579319861669</v>
+        <v>1.212252378463745</v>
       </c>
     </row>
   </sheetData>
